--- a/SauceLabs_Test.xlsx
+++ b/SauceLabs_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>S.No</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>It shoud redirect you to sauce labs web page.</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -552,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F67"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +579,10 @@
     <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="56.140625" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -579,8 +595,14 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -590,8 +612,11 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -599,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -607,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -615,7 +640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>12</v>
       </c>
@@ -623,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>14</v>
       </c>
@@ -631,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
@@ -639,15 +664,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -655,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>17</v>
       </c>
@@ -663,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>18</v>
       </c>
@@ -671,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -679,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -687,15 +715,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>8</v>
       </c>
@@ -703,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>21</v>
       </c>
@@ -711,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -719,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>14</v>
       </c>
@@ -727,10 +758,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4</v>
       </c>
@@ -738,15 +769,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -754,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>21</v>
       </c>
@@ -762,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>26</v>
       </c>
@@ -770,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>14</v>
       </c>
@@ -778,7 +812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>5</v>
       </c>
@@ -786,15 +820,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -802,7 +839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -810,7 +847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>6</v>
       </c>
@@ -818,15 +855,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>38</v>
       </c>
@@ -834,7 +874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7</v>
       </c>
@@ -848,15 +888,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -864,7 +907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>47</v>
       </c>
@@ -872,7 +915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>49</v>
       </c>
@@ -880,7 +923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>8</v>
       </c>
@@ -893,8 +936,11 @@
       <c r="E48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>53</v>
       </c>
@@ -902,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>9</v>
       </c>
@@ -910,7 +956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>9</v>
       </c>
@@ -920,8 +966,11 @@
       <c r="E53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>53</v>
       </c>
@@ -929,7 +978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>10</v>
       </c>
@@ -937,15 +986,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>58</v>
       </c>
@@ -953,7 +1005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>11</v>
       </c>
@@ -961,15 +1013,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>58</v>
       </c>
@@ -977,7 +1032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>12</v>
       </c>
@@ -990,8 +1045,11 @@
       <c r="E65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>66</v>
       </c>
@@ -999,7 +1057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>68</v>
       </c>

--- a/SauceLabs_Test.xlsx
+++ b/SauceLabs_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>S.No</t>
   </si>
@@ -249,6 +249,45 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>Repeat the login Steps</t>
+  </si>
+  <si>
+    <t>Scroll Down till footer becomes visible</t>
+  </si>
+  <si>
+    <t>Validating "facebook Link"</t>
+  </si>
+  <si>
+    <t>Click on facebook icon</t>
+  </si>
+  <si>
+    <t>You should get logged in</t>
+  </si>
+  <si>
+    <t>Social media links become visible</t>
+  </si>
+  <si>
+    <t>You should be redirected to facebook page of Sauce labs</t>
+  </si>
+  <si>
+    <t>Validating "twitter Link"</t>
+  </si>
+  <si>
+    <t>Click on twitter icon</t>
+  </si>
+  <si>
+    <t>You should be redirected to twitter page of Sauce labs</t>
+  </si>
+  <si>
+    <t>Validating "linkedin Link"</t>
+  </si>
+  <si>
+    <t>Click on linkedin icon</t>
+  </si>
+  <si>
+    <t>You should be redirected to linkedin page of Sauce labs</t>
   </si>
 </sst>
 </file>
@@ -567,14 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G67"/>
+  <dimension ref="B2:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="56.140625" customWidth="1"/>
@@ -1065,6 +1105,96 @@
         <v>69</v>
       </c>
     </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SauceLabs_Test.xlsx
+++ b/SauceLabs_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>S.No</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>You should be redirected to linkedin page of Sauce labs</t>
+  </si>
+  <si>
+    <t>Validating Title of swag labs</t>
+  </si>
+  <si>
+    <t>Sauce labs website shoud open</t>
+  </si>
+  <si>
+    <t>Check the title of website</t>
+  </si>
+  <si>
+    <t>Title should be swag labs</t>
   </si>
 </sst>
 </file>
@@ -606,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G80"/>
+  <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +669,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f ca="1">C6:E7</f>
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1193,6 +1209,36 @@
       </c>
       <c r="E80" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/SauceLabs_Test.xlsx
+++ b/SauceLabs_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>S.No</t>
   </si>
@@ -290,24 +290,35 @@
     <t>You should be redirected to linkedin page of Sauce labs</t>
   </si>
   <si>
-    <t>Validating Title of swag labs</t>
-  </si>
-  <si>
     <t>Sauce labs website shoud open</t>
   </si>
   <si>
     <t>Check the title of website</t>
   </si>
   <si>
-    <t>Title should be swag labs</t>
+    <t>Validating Title of swag labs website</t>
+  </si>
+  <si>
+    <t>Title should be sauce labs</t>
+  </si>
+  <si>
+    <t>It’s a bug Title should be Sauce Labs but in website it is swag labs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -335,9 +346,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G84"/>
+  <dimension ref="B2:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +641,7 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
@@ -1164,6 +1176,9 @@
       <c r="E74" t="s">
         <v>79</v>
       </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
@@ -1194,6 +1209,9 @@
       <c r="E78" t="s">
         <v>79</v>
       </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
@@ -1211,12 +1229,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -1225,23 +1243,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>8</v>
       </c>
       <c r="E83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>90</v>
       </c>
       <c r="E84" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>